--- a/workout.xlsx
+++ b/workout.xlsx
@@ -1,11 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
-  </bookViews>
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Day 1 - Push" sheetId="1" r:id="rId1"/>
     <sheet name="Day 2 - Pull" sheetId="2" r:id="rId2"/>
@@ -14,202 +10,39 @@
     <sheet name="Day 5 - Pull Variation" sheetId="5" r:id="rId5"/>
     <sheet name="Day 6 - Legs Variation" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="58">
-  <si>
-    <t>Exercise</t>
-  </si>
-  <si>
-    <t>Set #</t>
-  </si>
-  <si>
-    <t>Target Reps</t>
-  </si>
-  <si>
-    <t>Actual Reps</t>
-  </si>
-  <si>
-    <t>Weight (kg)</t>
-  </si>
-  <si>
-    <t>Rest (sec)</t>
-  </si>
-  <si>
-    <t>Barbell Bench Press</t>
-  </si>
-  <si>
-    <t>Standing Overhead Press</t>
-  </si>
-  <si>
-    <t>Incline Dumbbell Press</t>
-  </si>
-  <si>
-    <t>Dips (Chest emphasis)</t>
-  </si>
-  <si>
-    <t>Lateral Raises</t>
-  </si>
-  <si>
-    <t>Triceps Pushdowns</t>
-  </si>
-  <si>
-    <t>Push-Up Finisher (Optional)</t>
-  </si>
-  <si>
-    <t>6–8</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>10–12</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>12–15</t>
-  </si>
-  <si>
-    <t>To Failure</t>
-  </si>
-  <si>
-    <t>Pull-Ups / Lat Pulldowns</t>
-  </si>
-  <si>
-    <t>Barbell Bent-Over Row</t>
-  </si>
-  <si>
-    <t>Seated Cable Row</t>
-  </si>
-  <si>
-    <t>Face Pulls</t>
-  </si>
-  <si>
-    <t>Biceps Barbell Curls</t>
-  </si>
-  <si>
-    <t>Hammer Curls</t>
-  </si>
-  <si>
-    <t>Planks</t>
-  </si>
-  <si>
-    <t>6–10</t>
-  </si>
-  <si>
-    <t>8–10</t>
-  </si>
-  <si>
-    <t>30–60 sec hold</t>
-  </si>
-  <si>
-    <t>Back Squat</t>
-  </si>
-  <si>
-    <t>Romanian Deadlift (RDL)</t>
-  </si>
-  <si>
-    <t>Walking Lunges</t>
-  </si>
-  <si>
-    <t>Leg Curls</t>
-  </si>
-  <si>
-    <t>Standing Calf Raises</t>
-  </si>
-  <si>
-    <t>Hanging Leg Raises</t>
-  </si>
-  <si>
-    <t>10 per leg</t>
-  </si>
-  <si>
-    <t>Incline Barbell Bench Press</t>
-  </si>
-  <si>
-    <t>Dumbbell Shoulder Press</t>
-  </si>
-  <si>
-    <t>Chest Flyes</t>
-  </si>
-  <si>
-    <t>Close-Grip Bench Press</t>
-  </si>
-  <si>
-    <t>Triceps Dips</t>
-  </si>
-  <si>
-    <t>Lateral / Front Raises</t>
-  </si>
-  <si>
-    <t>Deadlift</t>
-  </si>
-  <si>
-    <t>T-Bar Row / One-Arm DB Row</t>
-  </si>
-  <si>
-    <t>Chin-Ups</t>
-  </si>
-  <si>
-    <t>Dumbbell Shrugs</t>
-  </si>
-  <si>
-    <t>EZ-Bar / DB Bicep Curls</t>
-  </si>
-  <si>
-    <t>Back Extensions (Optional)</t>
-  </si>
-  <si>
-    <t>5–6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Leg Press</t>
-  </si>
-  <si>
-    <t>Bulgarian Split Squat</t>
-  </si>
-  <si>
-    <t>Leg Extensions</t>
-  </si>
-  <si>
-    <t>Glute-Ham Raises / Hip Thrusts</t>
-  </si>
-  <si>
-    <t>Seated Calf Raises</t>
-  </si>
-  <si>
-    <t>Cable Crunches</t>
-  </si>
-  <si>
-    <t>8–10 per leg</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -224,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -232,36 +65,18 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -340,6 +155,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -374,6 +190,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -408,20 +225,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -543,7 +356,46 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -552,326 +404,453 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Set #</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Target Reps</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Actual Reps</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Rest (sec)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Barbell Bench Press</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D2" t="str">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="str">
+        <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Barbell Bench Press</v>
+      </c>
+      <c r="B3" t="str">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Barbell Bench Press</v>
+      </c>
+      <c r="B4" t="str">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Barbell Bench Press</v>
+      </c>
+      <c r="B5" t="str">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C5" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Standing Overhead Press</v>
+      </c>
+      <c r="B6" t="str">
+        <v>1</v>
+      </c>
+      <c r="C6" t="str">
+        <v>8</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Standing Overhead Press</v>
+      </c>
+      <c r="B7" t="str">
+        <v>2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>8</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2</v>
+      </c>
+      <c r="F7" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Standing Overhead Press</v>
+      </c>
+      <c r="B8" t="str">
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <v>8</v>
+      </c>
+      <c r="D8" t="str">
+        <v>3</v>
+      </c>
+      <c r="E8" t="str">
+        <v>3</v>
+      </c>
+      <c r="F8" t="str">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Incline Dumbbell Press</v>
+      </c>
+      <c r="B9" t="str">
+        <v>1</v>
+      </c>
+      <c r="C9" t="str">
+        <v>10</v>
+      </c>
+      <c r="D9" t="str">
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <v>4</v>
+      </c>
+      <c r="F9" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Incline Dumbbell Press</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>10</v>
+      </c>
+      <c r="D10" t="str">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="E10" t="str">
+        <v>5</v>
+      </c>
+      <c r="F10" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Incline Dumbbell Press</v>
+      </c>
+      <c r="B11" t="str">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <v>10</v>
+      </c>
+      <c r="D11" t="str">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="E11" t="str">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="F11" t="str">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Dips (Chest emphasis)</v>
+      </c>
+      <c r="B12" t="str">
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D12" t="str">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="E12" t="str">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9">
+      <c r="F12" t="str">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Dips (Chest emphasis)</v>
+      </c>
+      <c r="B13" t="str">
+        <v>2</v>
+      </c>
+      <c r="C13" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11">
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Dips (Chest emphasis)</v>
+      </c>
+      <c r="B14" t="str">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Lateral Raises</v>
+      </c>
+      <c r="B15" t="str">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
         <v>12</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Lateral Raises</v>
+      </c>
+      <c r="B16" t="str">
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
         <v>12</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22">
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Lateral Raises</v>
+      </c>
+      <c r="B17" t="str">
+        <v>3</v>
+      </c>
+      <c r="C17" t="str">
+        <v>12</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Triceps Pushdowns</v>
+      </c>
+      <c r="B18" t="str">
+        <v>1</v>
+      </c>
+      <c r="C18" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Triceps Pushdowns</v>
+      </c>
+      <c r="B19" t="str">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Triceps Pushdowns</v>
+      </c>
+      <c r="B20" t="str">
+        <v>3</v>
+      </c>
+      <c r="C20" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Push-Up Finisher (Optional)</v>
+      </c>
+      <c r="B21" t="str">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <v>To Failure</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Push-Up Finisher (Optional)</v>
+      </c>
+      <c r="B22" t="str">
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <v>To Failure</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -881,324 +860,451 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>20</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Set #</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Target Reps</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Actual Reps</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Rest (sec)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Pull-Ups / Lat Pulldowns</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
+      <c r="C2" t="str">
+        <v>6–10</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
       <c r="F2">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>20</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Pull-Ups / Lat Pulldowns</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
+      <c r="C3" t="str">
+        <v>6–10</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
       </c>
       <c r="F3">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>20</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Pull-Ups / Lat Pulldowns</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
+      <c r="C4" t="str">
+        <v>6–10</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
       </c>
       <c r="F4">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>20</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Pull-Ups / Lat Pulldowns</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>27</v>
+      <c r="C5" t="str">
+        <v>6–10</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
       </c>
       <c r="F5">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Barbell Bent-Over Row</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
       </c>
       <c r="F6">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>21</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Barbell Bent-Over Row</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
       </c>
       <c r="F7">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>21</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Barbell Bent-Over Row</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
       </c>
       <c r="F8">
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>22</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Seated Cable Row</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>16</v>
+      <c r="C9" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
       </c>
       <c r="F9">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>22</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Seated Cable Row</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
+      <c r="C10" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="F10">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>22</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Seated Cable Row</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>16</v>
+      <c r="C11" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
       <c r="F11">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>23</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Face Pulls</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
+      <c r="C12" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
       <c r="F12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>23</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Face Pulls</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>18</v>
+      <c r="C13" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>23</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Face Pulls</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>18</v>
+      <c r="C14" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>24</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Biceps Barbell Curls</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="C15" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>24</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Biceps Barbell Curls</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>28</v>
+      <c r="C16" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
       <c r="F16">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>24</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Biceps Barbell Curls</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
+      <c r="C17" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
       <c r="F17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>25</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Hammer Curls</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>16</v>
+      <c r="C18" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
       </c>
       <c r="F18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>25</v>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Hammer Curls</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>16</v>
+      <c r="C19" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
       </c>
       <c r="F19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>26</v>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Planks</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
+      <c r="C20" t="str">
+        <v>30–60 sec hold</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
       </c>
       <c r="F20">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>26</v>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Planks</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
-        <v>29</v>
+      <c r="C21" t="str">
+        <v>30–60 sec hold</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
       </c>
       <c r="F21">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>26</v>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Planks</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-      <c r="C22" t="s">
-        <v>29</v>
+      <c r="C22" t="str">
+        <v>30–60 sec hold</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
       </c>
       <c r="F22">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1208,310 +1314,431 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>30</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Set #</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Target Reps</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Actual Reps</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Rest (sec)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Back Squat</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="C2" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
       <c r="F2">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>30</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Back Squat</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
       </c>
       <c r="F3">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>30</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Back Squat</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
+      <c r="C4" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
       </c>
       <c r="F4">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>30</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Back Squat</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
+      <c r="C5" t="str">
+        <v>6–8</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
       </c>
       <c r="F5">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>31</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Romanian Deadlift (RDL)</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
       </c>
       <c r="F6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>31</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Romanian Deadlift (RDL)</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>31</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Romanian Deadlift (RDL)</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
       </c>
       <c r="F8">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>32</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Walking Lunges</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>36</v>
+      <c r="C9" t="str">
+        <v>10 per leg</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
       </c>
       <c r="F9">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>32</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Walking Lunges</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>36</v>
+      <c r="C10" t="str">
+        <v>10 per leg</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="F10">
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>32</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Walking Lunges</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
+      <c r="C11" t="str">
+        <v>10 per leg</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
       <c r="F11">
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>33</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Leg Curls</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="C12" t="str">
+        <v>12</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
       <c r="F12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>33</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Leg Curls</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="C13" t="str">
+        <v>12</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>33</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Leg Curls</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="C14" t="str">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>34</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Standing Calf Raises</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>18</v>
+      <c r="C15" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>34</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Standing Calf Raises</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>18</v>
+      <c r="C16" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
       <c r="F16">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>34</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Standing Calf Raises</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
+      <c r="C17" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
       <c r="F17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>34</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Standing Calf Raises</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
+      <c r="C18" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
       </c>
       <c r="F18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>35</v>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Hanging Leg Raises</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>17</v>
+      <c r="C19" t="str">
+        <v>12</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
       </c>
       <c r="F19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>35</v>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Hanging Leg Raises</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" t="str">
+        <v>12</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
       </c>
       <c r="F20">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>35</v>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Hanging Leg Raises</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>17</v>
+      <c r="C21" t="str">
+        <v>12</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
       </c>
       <c r="F21">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1521,296 +1748,411 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>37</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Set #</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Target Reps</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Actual Reps</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Rest (sec)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Incline Barbell Bench Press</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
+      <c r="C2" t="str">
+        <v>8</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
       <c r="F2">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>37</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Incline Barbell Bench Press</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
+      <c r="C3" t="str">
+        <v>8</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
       </c>
       <c r="F3">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>37</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Incline Barbell Bench Press</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="C4" t="str">
+        <v>8</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
       </c>
       <c r="F4">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>37</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Incline Barbell Bench Press</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>14</v>
+      <c r="C5" t="str">
+        <v>8</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
       </c>
       <c r="F5">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>38</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Dumbbell Shoulder Press</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="C6" t="str">
+        <v>10</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
       </c>
       <c r="F6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>38</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Dumbbell Shoulder Press</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
+      <c r="C7" t="str">
+        <v>10</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>38</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Dumbbell Shoulder Press</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
+      <c r="C8" t="str">
+        <v>10</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
       </c>
       <c r="F8">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>39</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Chest Flyes</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
+      <c r="C9" t="str">
+        <v>12</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>39</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Chest Flyes</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10" t="str">
+        <v>12</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="F10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>39</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Chest Flyes</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11" t="str">
+        <v>12</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
       <c r="F11">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>40</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Close-Grip Bench Press</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>28</v>
+      <c r="C12" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
       <c r="F12">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>40</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Close-Grip Bench Press</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="C13" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
       <c r="F13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>40</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Close-Grip Bench Press</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
+      <c r="C14" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
       </c>
       <c r="F14">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>41</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Triceps Dips</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
+      <c r="C15" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
       </c>
       <c r="F15">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>41</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Triceps Dips</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
+      <c r="C16" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
       <c r="F16">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>41</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Triceps Dips</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
+      <c r="C17" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
       <c r="F17">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>42</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Lateral / Front Raises</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>18</v>
+      <c r="C18" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
       </c>
       <c r="F18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>42</v>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Lateral / Front Raises</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
+      <c r="C19" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
       </c>
       <c r="F19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>42</v>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Lateral / Front Raises</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
-      <c r="C20" t="s">
-        <v>18</v>
+      <c r="C20" t="str">
+        <v>12–15</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
       </c>
       <c r="F20">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F20"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1820,282 +2162,391 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>43</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Set #</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Target Reps</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Actual Reps</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Rest (sec)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Deadlift</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>49</v>
+      <c r="C2" t="str">
+        <v>5–6</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
       <c r="F2">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>43</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Deadlift</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
+      <c r="C3" t="str">
+        <v>5–6</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
       </c>
       <c r="F3">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>43</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Deadlift</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
+      <c r="C4" t="str">
+        <v>5–6</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
       </c>
       <c r="F4">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>43</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Deadlift</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>49</v>
+      <c r="C5" t="str">
+        <v>5–6</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
       </c>
       <c r="F5">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>44</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>T-Bar Row / One-Arm DB Row</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="C6" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
       </c>
       <c r="F6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>44</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>T-Bar Row / One-Arm DB Row</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>44</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>T-Bar Row / One-Arm DB Row</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>28</v>
+      <c r="C8" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
       </c>
       <c r="F8">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>45</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Chin-Ups</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>28</v>
+      <c r="C9" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
       </c>
       <c r="F9">
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>45</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Chin-Ups</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>28</v>
+      <c r="C10" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="F10">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>45</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Chin-Ups</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>28</v>
+      <c r="C11" t="str">
+        <v>8–10</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
       <c r="F11">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>46</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Dumbbell Shrugs</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
+      <c r="C12" t="str">
+        <v>12</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
       <c r="F12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>46</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Dumbbell Shrugs</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>17</v>
+      <c r="C13" t="str">
+        <v>12</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>46</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Dumbbell Shrugs</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>17</v>
+      <c r="C14" t="str">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>47</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>EZ-Bar / DB Bicep Curls</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>16</v>
+      <c r="C15" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>47</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>EZ-Bar / DB Bicep Curls</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>16</v>
+      <c r="C16" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
       <c r="F16">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>47</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>EZ-Bar / DB Bicep Curls</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
+      <c r="C17" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
       <c r="F17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>48</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Back Extensions (Optional)</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>50</v>
+      <c r="C18" t="str">
+        <v>15</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
       </c>
       <c r="F18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>48</v>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Back Extensions (Optional)</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
+      <c r="C19" t="str">
+        <v>15</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
       </c>
       <c r="F19">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F19"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2105,309 +2556,430 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>51</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Exercise</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Set #</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Target Reps</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Actual Reps</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Weight (kg)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Rest (sec)</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Leg Press</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
+      <c r="C2" t="str">
+        <v>10</v>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
       <c r="F2">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>51</v>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Leg Press</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
+      <c r="C3" t="str">
+        <v>10</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
       </c>
       <c r="F3">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>51</v>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Leg Press</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
+      <c r="C4" t="str">
+        <v>10</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
       </c>
       <c r="F4">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>51</v>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Leg Press</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
+      <c r="C5" t="str">
+        <v>10</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
       </c>
       <c r="F5">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>52</v>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Bulgarian Split Squat</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>57</v>
+      <c r="C6" t="str">
+        <v>8–10 per leg</v>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
       </c>
       <c r="F6">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>52</v>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Bulgarian Split Squat</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>57</v>
+      <c r="C7" t="str">
+        <v>8–10 per leg</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
       </c>
       <c r="F7">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>52</v>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Bulgarian Split Squat</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>57</v>
+      <c r="C8" t="str">
+        <v>8–10 per leg</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
       </c>
       <c r="F8">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>53</v>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Leg Extensions</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
+      <c r="C9" t="str">
+        <v>12</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
       </c>
       <c r="F9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>53</v>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Leg Extensions</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>17</v>
+      <c r="C10" t="str">
+        <v>12</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
       </c>
       <c r="F10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>53</v>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Leg Extensions</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>17</v>
+      <c r="C11" t="str">
+        <v>12</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
       </c>
       <c r="F11">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>54</v>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Glute-Ham Raises / Hip Thrusts</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
+      <c r="C12" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
       </c>
       <c r="F12">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>54</v>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Glute-Ham Raises / Hip Thrusts</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
+      <c r="C13" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>54</v>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Glute-Ham Raises / Hip Thrusts</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>16</v>
+      <c r="C14" t="str">
+        <v>10–12</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
       </c>
       <c r="F14">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>55</v>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Seated Calf Raises</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
+      <c r="C15" t="str">
+        <v>15</v>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>55</v>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Seated Calf Raises</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>50</v>
+      <c r="C16" t="str">
+        <v>15</v>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
       </c>
       <c r="F16">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>55</v>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Seated Calf Raises</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
+      <c r="C17" t="str">
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
       </c>
       <c r="F17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>55</v>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Seated Calf Raises</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" t="s">
-        <v>50</v>
+      <c r="C18" t="str">
+        <v>15</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
       </c>
       <c r="F18">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>56</v>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Cable Crunches</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>50</v>
+      <c r="C19" t="str">
+        <v>15</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
       </c>
       <c r="F19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>56</v>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Cable Crunches</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
-        <v>50</v>
+      <c r="C20" t="str">
+        <v>15</v>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
       </c>
       <c r="F20">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>56</v>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Cable Crunches</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>50</v>
+      <c r="C21" t="str">
+        <v>15</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
       </c>
       <c r="F21">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F21"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/workout.xlsx
+++ b/workout.xlsx
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2" t="str">
         <v>180</v>
@@ -458,10 +458,10 @@
         <v>6–8</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F3" t="str">
         <v>180</v>
@@ -478,10 +478,10 @@
         <v>6–8</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F4" t="str">
         <v>180</v>
@@ -498,10 +498,10 @@
         <v>6–8</v>
       </c>
       <c r="D5" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="E5" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="F5" t="str">
         <v>180</v>
@@ -518,10 +518,10 @@
         <v>8</v>
       </c>
       <c r="D6" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="E6" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="F6" t="str">
         <v>180</v>
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="str">
-        <v>2</v>
+        <v/>
       </c>
       <c r="E7" t="str">
-        <v>2</v>
+        <v/>
       </c>
       <c r="F7" t="str">
         <v>180</v>
@@ -558,10 +558,10 @@
         <v>8</v>
       </c>
       <c r="D8" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="E8" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="F8" t="str">
         <v>180</v>
@@ -578,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="str">
-        <v>4</v>
+        <v/>
       </c>
       <c r="E9" t="str">
-        <v>4</v>
+        <v/>
       </c>
       <c r="F9" t="str">
         <v>90</v>
@@ -598,10 +598,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>5</v>
+        <v/>
       </c>
       <c r="F10" t="str">
         <v>90</v>
@@ -618,10 +618,10 @@
         <v>10</v>
       </c>
       <c r="D11" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="E11" t="str">
-        <v>6</v>
+        <v/>
       </c>
       <c r="F11" t="str">
         <v>90</v>
@@ -638,10 +638,10 @@
         <v>10–12</v>
       </c>
       <c r="D12" t="str">
-        <v>7</v>
+        <v/>
       </c>
       <c r="E12" t="str">
-        <v>7</v>
+        <v/>
       </c>
       <c r="F12" t="str">
         <v>90</v>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -441,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>180</v>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -438,7 +438,7 @@
         <v>6–8</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -441,7 +441,7 @@
         <v>99</v>
       </c>
       <c r="E2" t="str">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F2" t="str">
         <v>180</v>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +426,15 @@
       <c r="F1" t="str">
         <v>Rest (sec)</v>
       </c>
+      <c r="G1" t="str">
+        <v>Actual Reps Wk1</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Weight Wk1</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Target Wt Wk2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -446,6 +455,15 @@
       <c r="F2" t="str">
         <v>180</v>
       </c>
+      <c r="G2" t="str">
+        <v>88</v>
+      </c>
+      <c r="H2" t="str">
+        <v>88</v>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -466,6 +484,15 @@
       <c r="F3" t="str">
         <v>180</v>
       </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -486,6 +513,15 @@
       <c r="F4" t="str">
         <v>180</v>
       </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -506,6 +542,15 @@
       <c r="F5" t="str">
         <v>180</v>
       </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -526,6 +571,15 @@
       <c r="F6" t="str">
         <v>180</v>
       </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -546,6 +600,15 @@
       <c r="F7" t="str">
         <v>180</v>
       </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -566,6 +629,15 @@
       <c r="F8" t="str">
         <v>180</v>
       </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -586,6 +658,15 @@
       <c r="F9" t="str">
         <v>90</v>
       </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -606,6 +687,15 @@
       <c r="F10" t="str">
         <v>90</v>
       </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -626,6 +716,15 @@
       <c r="F11" t="str">
         <v>90</v>
       </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -646,6 +745,15 @@
       <c r="F12" t="str">
         <v>90</v>
       </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -666,6 +774,15 @@
       <c r="F13" t="str">
         <v>90</v>
       </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -686,6 +803,15 @@
       <c r="F14" t="str">
         <v>90</v>
       </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -706,6 +832,15 @@
       <c r="F15" t="str">
         <v>60</v>
       </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -726,6 +861,15 @@
       <c r="F16" t="str">
         <v>60</v>
       </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -746,6 +890,15 @@
       <c r="F17" t="str">
         <v>60</v>
       </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -766,6 +919,15 @@
       <c r="F18" t="str">
         <v>60</v>
       </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -786,6 +948,15 @@
       <c r="F19" t="str">
         <v>60</v>
       </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -806,6 +977,15 @@
       <c r="F20" t="str">
         <v>60</v>
       </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -826,6 +1006,15 @@
       <c r="F21" t="str">
         <v>60</v>
       </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -846,10 +1035,19 @@
       <c r="F22" t="str">
         <v>60</v>
       </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -476,19 +476,19 @@
         <v>6–8</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="F3" t="str">
         <v>180</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="I3" t="str">
         <v/>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,15 +426,6 @@
       <c r="F1" t="str">
         <v>Rest (sec)</v>
       </c>
-      <c r="G1" t="str">
-        <v>Actual Reps Wk1</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Weight Wk1</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Target Wt Wk2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -455,15 +446,6 @@
       <c r="F2" t="str">
         <v>180</v>
       </c>
-      <c r="G2" t="str">
-        <v>88</v>
-      </c>
-      <c r="H2" t="str">
-        <v>88</v>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -484,15 +466,6 @@
       <c r="F3" t="str">
         <v>180</v>
       </c>
-      <c r="G3" t="str">
-        <v>77</v>
-      </c>
-      <c r="H3" t="str">
-        <v>77</v>
-      </c>
-      <c r="I3" t="str">
-        <v/>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -505,22 +478,13 @@
         <v>6–8</v>
       </c>
       <c r="D4" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
         <v>180</v>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
       </c>
     </row>
     <row r="5">
@@ -542,15 +506,6 @@
       <c r="F5" t="str">
         <v>180</v>
       </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v/>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -571,15 +526,6 @@
       <c r="F6" t="str">
         <v>180</v>
       </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -600,15 +546,6 @@
       <c r="F7" t="str">
         <v>180</v>
       </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -629,15 +566,6 @@
       <c r="F8" t="str">
         <v>180</v>
       </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -658,15 +586,6 @@
       <c r="F9" t="str">
         <v>90</v>
       </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -687,15 +606,6 @@
       <c r="F10" t="str">
         <v>90</v>
       </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <v/>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -716,15 +626,6 @@
       <c r="F11" t="str">
         <v>90</v>
       </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <v/>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -745,15 +646,6 @@
       <c r="F12" t="str">
         <v>90</v>
       </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <v/>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -774,15 +666,6 @@
       <c r="F13" t="str">
         <v>90</v>
       </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -803,15 +686,6 @@
       <c r="F14" t="str">
         <v>90</v>
       </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -832,15 +706,6 @@
       <c r="F15" t="str">
         <v>60</v>
       </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -861,15 +726,6 @@
       <c r="F16" t="str">
         <v>60</v>
       </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <v/>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -890,15 +746,6 @@
       <c r="F17" t="str">
         <v>60</v>
       </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -919,15 +766,6 @@
       <c r="F18" t="str">
         <v>60</v>
       </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <v/>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -948,15 +786,6 @@
       <c r="F19" t="str">
         <v>60</v>
       </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <v/>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -977,15 +806,6 @@
       <c r="F20" t="str">
         <v>60</v>
       </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <v/>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -1006,15 +826,6 @@
       <c r="F21" t="str">
         <v>60</v>
       </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <v/>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -1035,19 +846,10 @@
       <c r="F22" t="str">
         <v>60</v>
       </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v/>
-      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +426,15 @@
       <c r="F1" t="str">
         <v>Rest (sec)</v>
       </c>
+      <c r="G1" t="str">
+        <v>Actual Reps Wk1</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Weight Wk1</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Target Wt Wk2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -446,6 +455,15 @@
       <c r="F2" t="str">
         <v>180</v>
       </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -466,6 +484,15 @@
       <c r="F3" t="str">
         <v>180</v>
       </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -481,10 +508,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>180</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -506,6 +542,15 @@
       <c r="F5" t="str">
         <v>180</v>
       </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -526,6 +571,15 @@
       <c r="F6" t="str">
         <v>180</v>
       </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -546,6 +600,15 @@
       <c r="F7" t="str">
         <v>180</v>
       </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -566,6 +629,15 @@
       <c r="F8" t="str">
         <v>180</v>
       </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -586,6 +658,15 @@
       <c r="F9" t="str">
         <v>90</v>
       </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -606,6 +687,15 @@
       <c r="F10" t="str">
         <v>90</v>
       </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -626,6 +716,15 @@
       <c r="F11" t="str">
         <v>90</v>
       </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -646,6 +745,15 @@
       <c r="F12" t="str">
         <v>90</v>
       </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -666,6 +774,15 @@
       <c r="F13" t="str">
         <v>90</v>
       </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -686,6 +803,15 @@
       <c r="F14" t="str">
         <v>90</v>
       </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -706,6 +832,15 @@
       <c r="F15" t="str">
         <v>60</v>
       </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -726,6 +861,15 @@
       <c r="F16" t="str">
         <v>60</v>
       </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -746,6 +890,15 @@
       <c r="F17" t="str">
         <v>60</v>
       </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -766,6 +919,15 @@
       <c r="F18" t="str">
         <v>60</v>
       </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -786,6 +948,15 @@
       <c r="F19" t="str">
         <v>60</v>
       </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -798,13 +969,22 @@
         <v>12–15</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>100</v>
       </c>
       <c r="E20" t="str">
-        <v/>
+        <v>55</v>
       </c>
       <c r="F20" t="str">
         <v>60</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
       </c>
     </row>
     <row r="21">
@@ -826,6 +1006,15 @@
       <c r="F21" t="str">
         <v>60</v>
       </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -846,10 +1035,19 @@
       <c r="F22" t="str">
         <v>60</v>
       </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -940,10 +940,10 @@
         <v>12–15</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>66</v>
       </c>
       <c r="E19" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="F19" t="str">
         <v>60</v>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,15 +426,6 @@
       <c r="F1" t="str">
         <v>Rest (sec)</v>
       </c>
-      <c r="G1" t="str">
-        <v>Actual Reps Wk1</v>
-      </c>
-      <c r="H1" t="str">
-        <v>Weight Wk1</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Target Wt Wk2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -447,22 +438,13 @@
         <v>6–8</v>
       </c>
       <c r="D2" t="str">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>180</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
       </c>
     </row>
     <row r="3">
@@ -476,22 +458,13 @@
         <v>6–8</v>
       </c>
       <c r="D3" t="str">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>180</v>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v/>
-      </c>
-      <c r="I3" t="str">
-        <v/>
       </c>
     </row>
     <row r="4">
@@ -513,15 +486,6 @@
       <c r="F4" t="str">
         <v>180</v>
       </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v/>
-      </c>
-      <c r="I4" t="str">
-        <v/>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -534,22 +498,13 @@
         <v>6–8</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
         <v>180</v>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v/>
-      </c>
-      <c r="I5" t="str">
-        <v/>
       </c>
     </row>
     <row r="6">
@@ -563,22 +518,13 @@
         <v>8</v>
       </c>
       <c r="D6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="F6" t="str">
         <v>180</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
       </c>
     </row>
     <row r="7">
@@ -592,22 +538,13 @@
         <v>8</v>
       </c>
       <c r="D7" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="F7" t="str">
         <v>180</v>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
       </c>
     </row>
     <row r="8">
@@ -621,22 +558,13 @@
         <v>8</v>
       </c>
       <c r="D8" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>3</v>
       </c>
       <c r="F8" t="str">
         <v>180</v>
-      </c>
-      <c r="G8" t="str">
-        <v/>
-      </c>
-      <c r="H8" t="str">
-        <v/>
-      </c>
-      <c r="I8" t="str">
-        <v/>
       </c>
     </row>
     <row r="9">
@@ -650,22 +578,13 @@
         <v>10</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>4</v>
       </c>
       <c r="F9" t="str">
         <v>90</v>
-      </c>
-      <c r="G9" t="str">
-        <v/>
-      </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
       </c>
     </row>
     <row r="10">
@@ -679,22 +598,13 @@
         <v>10</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>5</v>
       </c>
       <c r="F10" t="str">
         <v>90</v>
-      </c>
-      <c r="G10" t="str">
-        <v/>
-      </c>
-      <c r="H10" t="str">
-        <v/>
-      </c>
-      <c r="I10" t="str">
-        <v/>
       </c>
     </row>
     <row r="11">
@@ -708,22 +618,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>6</v>
       </c>
       <c r="F11" t="str">
         <v>90</v>
-      </c>
-      <c r="G11" t="str">
-        <v/>
-      </c>
-      <c r="H11" t="str">
-        <v/>
-      </c>
-      <c r="I11" t="str">
-        <v/>
       </c>
     </row>
     <row r="12">
@@ -737,22 +638,13 @@
         <v>10–12</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="F12" t="str">
         <v>90</v>
-      </c>
-      <c r="G12" t="str">
-        <v/>
-      </c>
-      <c r="H12" t="str">
-        <v/>
-      </c>
-      <c r="I12" t="str">
-        <v/>
       </c>
     </row>
     <row r="13">
@@ -774,15 +666,6 @@
       <c r="F13" t="str">
         <v>90</v>
       </c>
-      <c r="G13" t="str">
-        <v/>
-      </c>
-      <c r="H13" t="str">
-        <v/>
-      </c>
-      <c r="I13" t="str">
-        <v/>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -803,15 +686,6 @@
       <c r="F14" t="str">
         <v>90</v>
       </c>
-      <c r="G14" t="str">
-        <v/>
-      </c>
-      <c r="H14" t="str">
-        <v/>
-      </c>
-      <c r="I14" t="str">
-        <v/>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -832,15 +706,6 @@
       <c r="F15" t="str">
         <v>60</v>
       </c>
-      <c r="G15" t="str">
-        <v/>
-      </c>
-      <c r="H15" t="str">
-        <v/>
-      </c>
-      <c r="I15" t="str">
-        <v/>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -861,15 +726,6 @@
       <c r="F16" t="str">
         <v>60</v>
       </c>
-      <c r="G16" t="str">
-        <v/>
-      </c>
-      <c r="H16" t="str">
-        <v/>
-      </c>
-      <c r="I16" t="str">
-        <v/>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -890,15 +746,6 @@
       <c r="F17" t="str">
         <v>60</v>
       </c>
-      <c r="G17" t="str">
-        <v/>
-      </c>
-      <c r="H17" t="str">
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <v/>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -919,15 +766,6 @@
       <c r="F18" t="str">
         <v>60</v>
       </c>
-      <c r="G18" t="str">
-        <v/>
-      </c>
-      <c r="H18" t="str">
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <v/>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -940,22 +778,13 @@
         <v>12–15</v>
       </c>
       <c r="D19" t="str">
-        <v>66</v>
+        <v/>
       </c>
       <c r="E19" t="str">
-        <v>77</v>
+        <v/>
       </c>
       <c r="F19" t="str">
         <v>60</v>
-      </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
-      <c r="H19" t="str">
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <v/>
       </c>
     </row>
     <row r="20">
@@ -969,22 +798,13 @@
         <v>12–15</v>
       </c>
       <c r="D20" t="str">
-        <v>100</v>
+        <v/>
       </c>
       <c r="E20" t="str">
-        <v>55</v>
+        <v/>
       </c>
       <c r="F20" t="str">
         <v>60</v>
-      </c>
-      <c r="G20" t="str">
-        <v/>
-      </c>
-      <c r="H20" t="str">
-        <v/>
-      </c>
-      <c r="I20" t="str">
-        <v/>
       </c>
     </row>
     <row r="21">
@@ -998,22 +818,13 @@
         <v>To Failure</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="F21" t="str">
         <v>60</v>
-      </c>
-      <c r="G21" t="str">
-        <v/>
-      </c>
-      <c r="H21" t="str">
-        <v/>
-      </c>
-      <c r="I21" t="str">
-        <v/>
       </c>
     </row>
     <row r="22">
@@ -1027,27 +838,18 @@
         <v>To Failure</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>77</v>
       </c>
       <c r="E22" t="str">
-        <v/>
+        <v>7</v>
       </c>
       <c r="F22" t="str">
         <v>60</v>
-      </c>
-      <c r="G22" t="str">
-        <v/>
-      </c>
-      <c r="H22" t="str">
-        <v/>
-      </c>
-      <c r="I22" t="str">
-        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/workout.xlsx
+++ b/workout.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -426,6 +426,15 @@
       <c r="F1" t="str">
         <v>Rest (sec)</v>
       </c>
+      <c r="G1" t="str">
+        <v>Actual Reps Wk1</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Weight Wk1</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Target Wt Wk2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -446,10 +455,19 @@
       <c r="F2" t="str">
         <v>180</v>
       </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Barbell Bench Press</v>
+        <v>2Barbell Bench Press</v>
       </c>
       <c r="B3" t="str">
         <v>2</v>
@@ -465,6 +483,15 @@
       </c>
       <c r="F3" t="str">
         <v>180</v>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -486,6 +513,15 @@
       <c r="F4" t="str">
         <v>180</v>
       </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -506,6 +542,15 @@
       <c r="F5" t="str">
         <v>180</v>
       </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -526,6 +571,15 @@
       <c r="F6" t="str">
         <v>180</v>
       </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -546,6 +600,15 @@
       <c r="F7" t="str">
         <v>180</v>
       </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -566,6 +629,15 @@
       <c r="F8" t="str">
         <v>180</v>
       </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -586,6 +658,15 @@
       <c r="F9" t="str">
         <v>90</v>
       </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -606,6 +687,15 @@
       <c r="F10" t="str">
         <v>90</v>
       </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -626,6 +716,15 @@
       <c r="F11" t="str">
         <v>90</v>
       </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -646,6 +745,15 @@
       <c r="F12" t="str">
         <v>90</v>
       </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -666,6 +774,15 @@
       <c r="F13" t="str">
         <v>90</v>
       </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -686,6 +803,15 @@
       <c r="F14" t="str">
         <v>90</v>
       </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -706,6 +832,15 @@
       <c r="F15" t="str">
         <v>60</v>
       </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -726,6 +861,15 @@
       <c r="F16" t="str">
         <v>60</v>
       </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -746,6 +890,15 @@
       <c r="F17" t="str">
         <v>60</v>
       </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -766,6 +919,15 @@
       <c r="F18" t="str">
         <v>60</v>
       </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -786,6 +948,15 @@
       <c r="F19" t="str">
         <v>60</v>
       </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -806,6 +977,15 @@
       <c r="F20" t="str">
         <v>60</v>
       </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -818,13 +998,22 @@
         <v>To Failure</v>
       </c>
       <c r="D21" t="str">
-        <v>77</v>
+        <v/>
       </c>
       <c r="E21" t="str">
-        <v>77</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <v>60</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -838,18 +1027,27 @@
         <v>To Failure</v>
       </c>
       <c r="D22" t="str">
-        <v>77</v>
+        <v/>
       </c>
       <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>60</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
         <v>7</v>
-      </c>
-      <c r="F22" t="str">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F22"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I22"/>
   </ignoredErrors>
 </worksheet>
 </file>
